--- a/文档/函数表.xlsx
+++ b/文档/函数表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="173">
   <si>
     <t>usart1_config();</t>
   </si>
@@ -488,6 +488,112 @@
   </si>
   <si>
     <t>启动扫描所有模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com1_send_is_over()</t>
+  </si>
+  <si>
+    <t>com2_send_is_over()</t>
+  </si>
+  <si>
+    <t>com3_send_is_over()</t>
+  </si>
+  <si>
+    <t>com4_send_is_over()</t>
+  </si>
+  <si>
+    <t>all_com_send_is_over()</t>
+  </si>
+  <si>
+    <t>get_com1_send_addr()</t>
+  </si>
+  <si>
+    <t>get_com2_send_addr()</t>
+  </si>
+  <si>
+    <t>get_com3_send_addr()</t>
+  </si>
+  <si>
+    <t>get_com4_send_addr()</t>
+  </si>
+  <si>
+    <t>send_all_module()</t>
+  </si>
+  <si>
+    <t>stop_send_all_module()</t>
+  </si>
+  <si>
+    <t>start_send_all_module()</t>
+  </si>
+  <si>
+    <t>init_send_module_connect()</t>
+  </si>
+  <si>
+    <t>init_send_set_road_num()</t>
+  </si>
+  <si>
+    <t>第一路串口发送完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二路串口发送完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三路串口发送完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四路串口发送完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有串口发送完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取第一路串口的发送地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取第二路串口的发送地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取第三路串口的发送地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取第四路串口的发送地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送命令给所有的模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止给所有模块发送命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始给所有模块发送命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化发送模块握手连接指令函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化发送设置模块路号指令函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化发送模块连接指令函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,11 +650,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B94" sqref="A84:B94"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -864,602 +970,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="1"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1467,7 +1573,7 @@
       <c r="A84" t="s">
         <v>121</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1475,7 +1581,7 @@
       <c r="A85" t="s">
         <v>122</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1483,7 +1589,7 @@
       <c r="A86" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1491,7 +1597,7 @@
       <c r="A87" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1499,7 +1605,7 @@
       <c r="A88" t="s">
         <v>125</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1507,7 +1613,7 @@
       <c r="A89" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1515,7 +1621,7 @@
       <c r="A90" t="s">
         <v>127</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1523,7 +1629,7 @@
       <c r="A91" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1531,7 +1637,7 @@
       <c r="A92" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1539,7 +1645,7 @@
       <c r="A93" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1547,8 +1653,133 @@
       <c r="A94" t="s">
         <v>131</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C116" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1579,136 +1810,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
